--- a/data/output/FV2410_FV2404/UTILMD/55013.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20964" uniqueCount="1204">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20985" uniqueCount="1204">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3865,6 +3865,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U907" totalsRowShown="0">
+  <autoFilter ref="A1:U907"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4154,7 +4184,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U907"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48516,5 +48549,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55013.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55013.xlsx
@@ -6507,7 +6507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6536,8 +6536,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6980,7 +6986,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -7342,7 +7348,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -7690,7 +7696,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -7998,7 +8004,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -8198,7 +8204,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -8572,7 +8578,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -8880,7 +8886,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -9080,7 +9086,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -9298,7 +9304,7 @@
         <v>1095</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -9518,7 +9524,7 @@
         <v>1096</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -9738,7 +9744,7 @@
         <v>1097</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -9958,7 +9964,7 @@
         <v>1098</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -10606,7 +10612,7 @@
         <v>1100</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -10826,7 +10832,7 @@
         <v>1101</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -10984,7 +10990,7 @@
         <v>1102</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -11188,7 +11194,7 @@
         <v>1098</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -11392,7 +11398,7 @@
         <v>1105</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -11596,7 +11602,7 @@
         <v>1107</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -11800,7 +11806,7 @@
         <v>1109</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -12002,7 +12008,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -12202,7 +12208,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -12412,7 +12418,7 @@
         <v>1112</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -12684,7 +12690,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -12956,7 +12962,7 @@
         <v>1113</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -13174,7 +13180,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -13388,7 +13394,7 @@
         <v>1114</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -13808,7 +13814,7 @@
         <v>1117</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -13956,7 +13962,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -14282,7 +14288,7 @@
         <v>1119</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -14544,7 +14550,7 @@
         <v>1120</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -14764,7 +14770,7 @@
         <v>1122</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -14926,7 +14932,7 @@
         <v>1123</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -15074,7 +15080,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -15232,7 +15238,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -15486,7 +15492,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -15632,7 +15638,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -15954,7 +15960,7 @@
         <v>1124</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -16102,7 +16108,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -16264,7 +16270,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -16476,7 +16482,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -16622,7 +16628,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -16778,7 +16784,7 @@
         <v>1124</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -16926,7 +16932,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -17088,7 +17094,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -17306,7 +17312,7 @@
         <v>1126</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -17504,7 +17510,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -17858,7 +17864,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -18002,7 +18008,7 @@
         <v>1098</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -18150,7 +18156,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -18310,7 +18316,7 @@
         <v>1127</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -18684,7 +18690,7 @@
         <v>1130</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -18944,7 +18950,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -19144,7 +19150,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -19290,7 +19296,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -19450,7 +19456,7 @@
         <v>1132</v>
       </c>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -19884,7 +19890,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -20080,7 +20086,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -20278,7 +20284,7 @@
         <v>1133</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -20586,7 +20592,7 @@
         <v>1134</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -20888,7 +20894,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -21302,7 +21308,7 @@
         <v>1135</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -21516,7 +21522,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -21870,7 +21876,7 @@
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="4"/>
-      <c r="M288" s="2" t="s">
+      <c r="M288" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N288" s="2" t="s">
@@ -22124,7 +22130,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -22326,7 +22332,7 @@
         <v>1137</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -22484,7 +22490,7 @@
         <v>1138</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -22792,7 +22798,7 @@
         <v>1139</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -23056,7 +23062,7 @@
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -23252,7 +23258,7 @@
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -23398,7 +23404,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -23614,7 +23620,7 @@
       </c>
       <c r="K322" s="2"/>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -23834,7 +23840,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -24050,7 +24056,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -24262,7 +24268,7 @@
       </c>
       <c r="K334" s="2"/>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -24516,7 +24522,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -24718,7 +24724,7 @@
         <v>1141</v>
       </c>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -24866,7 +24872,7 @@
       </c>
       <c r="K346" s="2"/>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -25142,7 +25148,7 @@
         <v>1144</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -25402,7 +25408,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -25660,7 +25666,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -26028,7 +26034,7 @@
         <v>1148</v>
       </c>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -26228,7 +26234,7 @@
         <v>1148</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -26490,7 +26496,7 @@
         <v>1150</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -26690,7 +26696,7 @@
         <v>1150</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -26888,7 +26894,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -27034,7 +27040,7 @@
       </c>
       <c r="K388" s="2"/>
       <c r="L388" s="4"/>
-      <c r="M388" s="2" t="s">
+      <c r="M388" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N388" s="2" t="s">
@@ -27196,7 +27202,7 @@
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -27414,7 +27420,7 @@
         <v>1152</v>
       </c>
       <c r="L395" s="4"/>
-      <c r="M395" s="2" t="s">
+      <c r="M395" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N395" s="2" t="s">
@@ -27826,7 +27832,7 @@
         <v>1153</v>
       </c>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -28026,7 +28032,7 @@
         <v>1154</v>
       </c>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -28224,7 +28230,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -28370,7 +28376,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -28688,7 +28694,7 @@
         <v>1135</v>
       </c>
       <c r="L420" s="4"/>
-      <c r="M420" s="2" t="s">
+      <c r="M420" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N420" s="2" t="s">
@@ -28836,7 +28842,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -28998,7 +29004,7 @@
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -29210,7 +29216,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -29406,7 +29412,7 @@
       </c>
       <c r="K434" s="2"/>
       <c r="L434" s="4"/>
-      <c r="M434" s="2" t="s">
+      <c r="M434" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N434" s="2" t="s">
@@ -29550,7 +29556,7 @@
         <v>1155</v>
       </c>
       <c r="L437" s="4"/>
-      <c r="M437" s="2" t="s">
+      <c r="M437" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N437" s="2" t="s">
@@ -29698,7 +29704,7 @@
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -29852,7 +29858,7 @@
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="4"/>
-      <c r="M443" s="2" t="s">
+      <c r="M443" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N443" s="2" t="s">
@@ -29998,7 +30004,7 @@
       </c>
       <c r="K446" s="2"/>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -30318,7 +30324,7 @@
       </c>
       <c r="K452" s="2"/>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -30478,7 +30484,7 @@
         <v>1156</v>
       </c>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -30694,7 +30700,7 @@
         <v>1157</v>
       </c>
       <c r="L459" s="4"/>
-      <c r="M459" s="2" t="s">
+      <c r="M459" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N459" s="2" t="s">
@@ -30906,7 +30912,7 @@
         <v>1158</v>
       </c>
       <c r="L463" s="4"/>
-      <c r="M463" s="2" t="s">
+      <c r="M463" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N463" s="2" t="s">
@@ -31054,7 +31060,7 @@
       </c>
       <c r="K466" s="2"/>
       <c r="L466" s="4"/>
-      <c r="M466" s="2" t="s">
+      <c r="M466" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N466" s="2" t="s">
@@ -31218,7 +31224,7 @@
         <v>1159</v>
       </c>
       <c r="L469" s="4"/>
-      <c r="M469" s="2" t="s">
+      <c r="M469" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N469" s="2" t="s">
@@ -31361,7 +31367,7 @@
       <c r="A472" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="B472" s="8" t="s">
+      <c r="B472" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C472" s="8" t="s">
@@ -31499,29 +31505,29 @@
       <c r="I475" s="5"/>
       <c r="J475" s="5"/>
       <c r="K475" s="5"/>
-      <c r="L475" s="10" t="s">
+      <c r="L475" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="M475" s="11" t="s">
+      <c r="M475" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N475" s="11" t="s">
+      <c r="N475" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="O475" s="11" t="s">
+      <c r="O475" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P475" s="11"/>
-      <c r="Q475" s="11" t="s">
+      <c r="P475" s="13"/>
+      <c r="Q475" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R475" s="11"/>
-      <c r="S475" s="11"/>
-      <c r="T475" s="11"/>
-      <c r="U475" s="11" t="s">
+      <c r="R475" s="13"/>
+      <c r="S475" s="13"/>
+      <c r="T475" s="13"/>
+      <c r="U475" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="V475" s="11" t="s">
+      <c r="V475" s="13" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -31539,35 +31545,35 @@
       <c r="I476" s="5"/>
       <c r="J476" s="5"/>
       <c r="K476" s="5"/>
-      <c r="L476" s="10" t="s">
+      <c r="L476" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="M476" s="11" t="s">
+      <c r="M476" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N476" s="11" t="s">
+      <c r="N476" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="O476" s="11" t="s">
+      <c r="O476" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P476" s="11" t="s">
+      <c r="P476" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="Q476" s="11" t="s">
+      <c r="Q476" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R476" s="11" t="s">
+      <c r="R476" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="S476" s="11"/>
-      <c r="T476" s="11" t="s">
+      <c r="S476" s="13"/>
+      <c r="T476" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="U476" s="11" t="s">
-        <v>964</v>
-      </c>
-      <c r="V476" s="11"/>
+      <c r="U476" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="V476" s="13"/>
     </row>
     <row r="477" spans="1:22">
       <c r="A477" s="5" t="s">
@@ -31583,33 +31589,33 @@
       <c r="I477" s="5"/>
       <c r="J477" s="5"/>
       <c r="K477" s="5"/>
-      <c r="L477" s="10" t="s">
+      <c r="L477" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="M477" s="11" t="s">
+      <c r="M477" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N477" s="11" t="s">
+      <c r="N477" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="O477" s="11" t="s">
+      <c r="O477" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="P477" s="11" t="s">
+      <c r="P477" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="Q477" s="11" t="s">
+      <c r="Q477" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R477" s="11"/>
-      <c r="S477" s="11"/>
-      <c r="T477" s="11" t="s">
+      <c r="R477" s="13"/>
+      <c r="S477" s="13"/>
+      <c r="T477" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="U477" s="11" t="s">
+      <c r="U477" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="V477" s="11" t="s">
+      <c r="V477" s="13" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -31640,7 +31646,7 @@
         <v>1161</v>
       </c>
       <c r="L478" s="4"/>
-      <c r="M478" s="2" t="s">
+      <c r="M478" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N478" s="2" t="s">
@@ -31806,7 +31812,7 @@
         <v>1162</v>
       </c>
       <c r="L481" s="4"/>
-      <c r="M481" s="2" t="s">
+      <c r="M481" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N481" s="2" t="s">
@@ -31968,7 +31974,7 @@
         <v>1163</v>
       </c>
       <c r="L484" s="4"/>
-      <c r="M484" s="2" t="s">
+      <c r="M484" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N484" s="2" t="s">
@@ -32226,7 +32232,7 @@
         <v>1164</v>
       </c>
       <c r="L489" s="4"/>
-      <c r="M489" s="2" t="s">
+      <c r="M489" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N489" s="2" t="s">
@@ -32484,7 +32490,7 @@
         <v>1164</v>
       </c>
       <c r="L494" s="4"/>
-      <c r="M494" s="2" t="s">
+      <c r="M494" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N494" s="2" t="s">
@@ -32740,7 +32746,7 @@
       </c>
       <c r="K499" s="2"/>
       <c r="L499" s="4"/>
-      <c r="M499" s="2" t="s">
+      <c r="M499" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N499" s="2" t="s">
@@ -32942,7 +32948,7 @@
         <v>1165</v>
       </c>
       <c r="L503" s="4"/>
-      <c r="M503" s="2" t="s">
+      <c r="M503" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N503" s="2" t="s">
@@ -33212,7 +33218,7 @@
         <v>1156</v>
       </c>
       <c r="L508" s="4"/>
-      <c r="M508" s="2" t="s">
+      <c r="M508" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N508" s="2" t="s">
@@ -33428,7 +33434,7 @@
         <v>1157</v>
       </c>
       <c r="L512" s="4"/>
-      <c r="M512" s="2" t="s">
+      <c r="M512" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N512" s="2" t="s">
@@ -33644,7 +33650,7 @@
         <v>1164</v>
       </c>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -33914,7 +33920,7 @@
         <v>1166</v>
       </c>
       <c r="L521" s="4"/>
-      <c r="M521" s="2" t="s">
+      <c r="M521" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N521" s="2" t="s">
@@ -34076,7 +34082,7 @@
         <v>1167</v>
       </c>
       <c r="L524" s="4"/>
-      <c r="M524" s="2" t="s">
+      <c r="M524" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N524" s="2" t="s">
@@ -34238,7 +34244,7 @@
         <v>1168</v>
       </c>
       <c r="L527" s="4"/>
-      <c r="M527" s="2" t="s">
+      <c r="M527" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N527" s="2" t="s">
@@ -34504,7 +34510,7 @@
         <v>1169</v>
       </c>
       <c r="L532" s="4"/>
-      <c r="M532" s="2" t="s">
+      <c r="M532" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N532" s="2" t="s">
@@ -34808,7 +34814,7 @@
         <v>1170</v>
       </c>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -34956,7 +34962,7 @@
       </c>
       <c r="K541" s="2"/>
       <c r="L541" s="4"/>
-      <c r="M541" s="2" t="s">
+      <c r="M541" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N541" s="2" t="s">
@@ -35114,7 +35120,7 @@
       </c>
       <c r="K544" s="2"/>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -35260,7 +35266,7 @@
       </c>
       <c r="K547" s="2"/>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -35472,7 +35478,7 @@
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="4"/>
-      <c r="M551" s="2" t="s">
+      <c r="M551" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N551" s="2" t="s">
@@ -35618,7 +35624,7 @@
       </c>
       <c r="K554" s="2"/>
       <c r="L554" s="4"/>
-      <c r="M554" s="2" t="s">
+      <c r="M554" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N554" s="2" t="s">
@@ -35940,7 +35946,7 @@
         <v>1171</v>
       </c>
       <c r="L560" s="4"/>
-      <c r="M560" s="2" t="s">
+      <c r="M560" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N560" s="2" t="s">
@@ -36088,7 +36094,7 @@
       </c>
       <c r="K563" s="2"/>
       <c r="L563" s="4"/>
-      <c r="M563" s="2" t="s">
+      <c r="M563" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N563" s="2" t="s">
@@ -36250,7 +36256,7 @@
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="4"/>
-      <c r="M566" s="2" t="s">
+      <c r="M566" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N566" s="2" t="s">
@@ -36462,7 +36468,7 @@
       </c>
       <c r="K570" s="2"/>
       <c r="L570" s="4"/>
-      <c r="M570" s="2" t="s">
+      <c r="M570" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N570" s="2" t="s">
@@ -36712,7 +36718,7 @@
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="4"/>
-      <c r="M575" s="2" t="s">
+      <c r="M575" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N575" s="2" t="s">
@@ -37066,7 +37072,7 @@
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="4"/>
-      <c r="M582" s="2" t="s">
+      <c r="M582" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N582" s="2" t="s">
@@ -37210,7 +37216,7 @@
         <v>1172</v>
       </c>
       <c r="L585" s="4"/>
-      <c r="M585" s="2" t="s">
+      <c r="M585" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N585" s="2" t="s">
@@ -37358,7 +37364,7 @@
       </c>
       <c r="K588" s="2"/>
       <c r="L588" s="4"/>
-      <c r="M588" s="2" t="s">
+      <c r="M588" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N588" s="2" t="s">
@@ -37522,7 +37528,7 @@
         <v>1173</v>
       </c>
       <c r="L591" s="4"/>
-      <c r="M591" s="2" t="s">
+      <c r="M591" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N591" s="2" t="s">
@@ -37678,7 +37684,7 @@
       </c>
       <c r="K594" s="2"/>
       <c r="L594" s="4"/>
-      <c r="M594" s="2" t="s">
+      <c r="M594" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N594" s="2" t="s">
@@ -37824,7 +37830,7 @@
       </c>
       <c r="K597" s="2"/>
       <c r="L597" s="4"/>
-      <c r="M597" s="2" t="s">
+      <c r="M597" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N597" s="2" t="s">
@@ -38260,7 +38266,7 @@
       </c>
       <c r="K605" s="2"/>
       <c r="L605" s="4"/>
-      <c r="M605" s="2" t="s">
+      <c r="M605" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N605" s="2" t="s">
@@ -38414,7 +38420,7 @@
       </c>
       <c r="K608" s="2"/>
       <c r="L608" s="4"/>
-      <c r="M608" s="2" t="s">
+      <c r="M608" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N608" s="2" t="s">
@@ -38824,7 +38830,7 @@
         <v>1174</v>
       </c>
       <c r="L616" s="4"/>
-      <c r="M616" s="2" t="s">
+      <c r="M616" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N616" s="2" t="s">
@@ -38972,7 +38978,7 @@
       </c>
       <c r="K619" s="2"/>
       <c r="L619" s="4"/>
-      <c r="M619" s="2" t="s">
+      <c r="M619" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N619" s="2" t="s">
@@ -39136,7 +39142,7 @@
         <v>1175</v>
       </c>
       <c r="L622" s="4"/>
-      <c r="M622" s="2" t="s">
+      <c r="M622" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N622" s="2" t="s">
@@ -39292,7 +39298,7 @@
       </c>
       <c r="K625" s="2"/>
       <c r="L625" s="4"/>
-      <c r="M625" s="2" t="s">
+      <c r="M625" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N625" s="2" t="s">
@@ -40144,7 +40150,7 @@
       </c>
       <c r="K641" s="2"/>
       <c r="L641" s="4"/>
-      <c r="M641" s="2" t="s">
+      <c r="M641" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N641" s="2" t="s">
@@ -40304,7 +40310,7 @@
         <v>1177</v>
       </c>
       <c r="L644" s="4"/>
-      <c r="M644" s="2" t="s">
+      <c r="M644" s="3" t="s">
         <v>144</v>
       </c>
       <c r="N644" s="2" t="s">
@@ -40518,7 +40524,7 @@
       </c>
       <c r="K648" s="2"/>
       <c r="L648" s="4"/>
-      <c r="M648" s="2" t="s">
+      <c r="M648" s="3" t="s">
         <v>145</v>
       </c>
       <c r="N648" s="2" t="s">
@@ -40676,7 +40682,7 @@
       </c>
       <c r="K651" s="2"/>
       <c r="L651" s="4"/>
-      <c r="M651" s="2" t="s">
+      <c r="M651" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N651" s="2" t="s">
@@ -40890,7 +40896,7 @@
         <v>1178</v>
       </c>
       <c r="L655" s="4"/>
-      <c r="M655" s="2" t="s">
+      <c r="M655" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N655" s="2" t="s">
@@ -41194,7 +41200,7 @@
         <v>1179</v>
       </c>
       <c r="L661" s="4"/>
-      <c r="M661" s="2" t="s">
+      <c r="M661" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N661" s="2" t="s">
@@ -41344,7 +41350,7 @@
         <v>1180</v>
       </c>
       <c r="L664" s="4"/>
-      <c r="M664" s="2" t="s">
+      <c r="M664" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N664" s="2" t="s">
@@ -41562,7 +41568,7 @@
       </c>
       <c r="K668" s="2"/>
       <c r="L668" s="4"/>
-      <c r="M668" s="2" t="s">
+      <c r="M668" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N668" s="2" t="s">
@@ -41726,7 +41732,7 @@
         <v>1182</v>
       </c>
       <c r="L671" s="4"/>
-      <c r="M671" s="2" t="s">
+      <c r="M671" s="3" t="s">
         <v>150</v>
       </c>
       <c r="N671" s="2" t="s">
@@ -41886,7 +41892,7 @@
       </c>
       <c r="K674" s="2"/>
       <c r="L674" s="4"/>
-      <c r="M674" s="2" t="s">
+      <c r="M674" s="3" t="s">
         <v>151</v>
       </c>
       <c r="N674" s="2" t="s">
@@ -42104,7 +42110,7 @@
         <v>1184</v>
       </c>
       <c r="L678" s="4"/>
-      <c r="M678" s="2" t="s">
+      <c r="M678" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N678" s="2" t="s">
@@ -42516,7 +42522,7 @@
         <v>1185</v>
       </c>
       <c r="L686" s="4"/>
-      <c r="M686" s="2" t="s">
+      <c r="M686" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N686" s="2" t="s">
@@ -42716,7 +42722,7 @@
         <v>1154</v>
       </c>
       <c r="L690" s="4"/>
-      <c r="M690" s="2" t="s">
+      <c r="M690" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N690" s="2" t="s">
@@ -42916,7 +42922,7 @@
         <v>1186</v>
       </c>
       <c r="L694" s="4"/>
-      <c r="M694" s="2" t="s">
+      <c r="M694" s="3" t="s">
         <v>152</v>
       </c>
       <c r="N694" s="2" t="s">
@@ -43274,7 +43280,7 @@
         <v>1187</v>
       </c>
       <c r="L701" s="4"/>
-      <c r="M701" s="2" t="s">
+      <c r="M701" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N701" s="2" t="s">
@@ -43474,7 +43480,7 @@
         <v>1188</v>
       </c>
       <c r="L705" s="4"/>
-      <c r="M705" s="2" t="s">
+      <c r="M705" s="3" t="s">
         <v>154</v>
       </c>
       <c r="N705" s="2" t="s">
@@ -43622,7 +43628,7 @@
       </c>
       <c r="K708" s="2"/>
       <c r="L708" s="4"/>
-      <c r="M708" s="2" t="s">
+      <c r="M708" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N708" s="2" t="s">
@@ -43776,7 +43782,7 @@
       </c>
       <c r="K711" s="2"/>
       <c r="L711" s="4"/>
-      <c r="M711" s="2" t="s">
+      <c r="M711" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N711" s="2" t="s">
@@ -43924,7 +43930,7 @@
         <v>1189</v>
       </c>
       <c r="L714" s="4"/>
-      <c r="M714" s="2" t="s">
+      <c r="M714" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N714" s="2" t="s">
@@ -44084,7 +44090,7 @@
       </c>
       <c r="K717" s="2"/>
       <c r="L717" s="4"/>
-      <c r="M717" s="2" t="s">
+      <c r="M717" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N717" s="2" t="s">
@@ -44406,7 +44412,7 @@
         <v>1191</v>
       </c>
       <c r="L723" s="4"/>
-      <c r="M723" s="2" t="s">
+      <c r="M723" s="3" t="s">
         <v>157</v>
       </c>
       <c r="N723" s="2" t="s">
@@ -44554,7 +44560,7 @@
       </c>
       <c r="K726" s="2"/>
       <c r="L726" s="4"/>
-      <c r="M726" s="2" t="s">
+      <c r="M726" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N726" s="2" t="s">
@@ -44708,7 +44714,7 @@
       </c>
       <c r="K729" s="2"/>
       <c r="L729" s="4"/>
-      <c r="M729" s="2" t="s">
+      <c r="M729" s="3" t="s">
         <v>158</v>
       </c>
       <c r="N729" s="2" t="s">
@@ -44854,7 +44860,7 @@
       </c>
       <c r="K732" s="2"/>
       <c r="L732" s="4"/>
-      <c r="M732" s="2" t="s">
+      <c r="M732" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N732" s="2" t="s">
@@ -45012,7 +45018,7 @@
       </c>
       <c r="K735" s="2"/>
       <c r="L735" s="4"/>
-      <c r="M735" s="2" t="s">
+      <c r="M735" s="3" t="s">
         <v>159</v>
       </c>
       <c r="N735" s="2" t="s">
@@ -45384,7 +45390,7 @@
         <v>1188</v>
       </c>
       <c r="L742" s="4"/>
-      <c r="M742" s="2" t="s">
+      <c r="M742" s="3" t="s">
         <v>160</v>
       </c>
       <c r="N742" s="2" t="s">
@@ -45532,7 +45538,7 @@
       </c>
       <c r="K745" s="2"/>
       <c r="L745" s="4"/>
-      <c r="M745" s="2" t="s">
+      <c r="M745" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N745" s="2" t="s">
@@ -45686,7 +45692,7 @@
       </c>
       <c r="K748" s="2"/>
       <c r="L748" s="4"/>
-      <c r="M748" s="2" t="s">
+      <c r="M748" s="3" t="s">
         <v>161</v>
       </c>
       <c r="N748" s="2" t="s">
@@ -45832,7 +45838,7 @@
       </c>
       <c r="K751" s="2"/>
       <c r="L751" s="4"/>
-      <c r="M751" s="2" t="s">
+      <c r="M751" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N751" s="2" t="s">
@@ -45990,7 +45996,7 @@
       </c>
       <c r="K754" s="2"/>
       <c r="L754" s="4"/>
-      <c r="M754" s="2" t="s">
+      <c r="M754" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N754" s="2" t="s">
@@ -46146,7 +46152,7 @@
         <v>1188</v>
       </c>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N757" s="2" t="s">
@@ -46436,7 +46442,7 @@
       </c>
       <c r="K763" s="2"/>
       <c r="L763" s="4"/>
-      <c r="M763" s="2" t="s">
+      <c r="M763" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N763" s="2" t="s">
@@ -46596,7 +46602,7 @@
         <v>1193</v>
       </c>
       <c r="L766" s="4"/>
-      <c r="M766" s="2" t="s">
+      <c r="M766" s="3" t="s">
         <v>164</v>
       </c>
       <c r="N766" s="2" t="s">
@@ -46744,7 +46750,7 @@
       </c>
       <c r="K769" s="2"/>
       <c r="L769" s="4"/>
-      <c r="M769" s="2" t="s">
+      <c r="M769" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N769" s="2" t="s">
@@ -46902,7 +46908,7 @@
       </c>
       <c r="K772" s="2"/>
       <c r="L772" s="4"/>
-      <c r="M772" s="2" t="s">
+      <c r="M772" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N772" s="2" t="s">
@@ -47060,7 +47066,7 @@
       </c>
       <c r="K775" s="2"/>
       <c r="L775" s="4"/>
-      <c r="M775" s="2" t="s">
+      <c r="M775" s="3" t="s">
         <v>165</v>
       </c>
       <c r="N775" s="2" t="s">
@@ -47206,7 +47212,7 @@
       </c>
       <c r="K778" s="2"/>
       <c r="L778" s="4"/>
-      <c r="M778" s="2" t="s">
+      <c r="M778" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N778" s="2" t="s">
@@ -47366,7 +47372,7 @@
         <v>1194</v>
       </c>
       <c r="L781" s="4"/>
-      <c r="M781" s="2" t="s">
+      <c r="M781" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N781" s="2" t="s">
@@ -47514,7 +47520,7 @@
       </c>
       <c r="K784" s="2"/>
       <c r="L784" s="4"/>
-      <c r="M784" s="2" t="s">
+      <c r="M784" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N784" s="2" t="s">
@@ -47672,7 +47678,7 @@
       </c>
       <c r="K787" s="2"/>
       <c r="L787" s="4"/>
-      <c r="M787" s="2" t="s">
+      <c r="M787" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N787" s="2" t="s">
@@ -48032,7 +48038,7 @@
         <v>1196</v>
       </c>
       <c r="L794" s="4"/>
-      <c r="M794" s="2" t="s">
+      <c r="M794" s="3" t="s">
         <v>168</v>
       </c>
       <c r="N794" s="2" t="s">
@@ -48180,7 +48186,7 @@
       </c>
       <c r="K797" s="2"/>
       <c r="L797" s="4"/>
-      <c r="M797" s="2" t="s">
+      <c r="M797" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N797" s="2" t="s">
@@ -48338,7 +48344,7 @@
       </c>
       <c r="K800" s="2"/>
       <c r="L800" s="4"/>
-      <c r="M800" s="2" t="s">
+      <c r="M800" s="3" t="s">
         <v>169</v>
       </c>
       <c r="N800" s="2" t="s">
@@ -48580,7 +48586,7 @@
       </c>
       <c r="K805" s="2"/>
       <c r="L805" s="4"/>
-      <c r="M805" s="2" t="s">
+      <c r="M805" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N805" s="2" t="s">
@@ -48934,7 +48940,7 @@
       </c>
       <c r="K812" s="2"/>
       <c r="L812" s="4"/>
-      <c r="M812" s="2" t="s">
+      <c r="M812" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N812" s="2" t="s">
@@ -49356,7 +49362,7 @@
         <v>1198</v>
       </c>
       <c r="L820" s="4"/>
-      <c r="M820" s="2" t="s">
+      <c r="M820" s="3" t="s">
         <v>171</v>
       </c>
       <c r="N820" s="2" t="s">
@@ -49670,7 +49676,7 @@
       </c>
       <c r="K826" s="2"/>
       <c r="L826" s="4"/>
-      <c r="M826" s="2" t="s">
+      <c r="M826" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N826" s="2" t="s">
@@ -49830,7 +49836,7 @@
         <v>1199</v>
       </c>
       <c r="L829" s="4"/>
-      <c r="M829" s="2" t="s">
+      <c r="M829" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N829" s="2" t="s">
@@ -50364,7 +50370,7 @@
       </c>
       <c r="K839" s="2"/>
       <c r="L839" s="4"/>
-      <c r="M839" s="2" t="s">
+      <c r="M839" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N839" s="2" t="s">
@@ -50522,7 +50528,7 @@
       </c>
       <c r="K842" s="2"/>
       <c r="L842" s="4"/>
-      <c r="M842" s="2" t="s">
+      <c r="M842" s="3" t="s">
         <v>173</v>
       </c>
       <c r="N842" s="2" t="s">
@@ -50834,7 +50840,7 @@
       </c>
       <c r="K848" s="2"/>
       <c r="L848" s="4"/>
-      <c r="M848" s="2" t="s">
+      <c r="M848" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N848" s="2" t="s">
@@ -50992,7 +50998,7 @@
       </c>
       <c r="K851" s="2"/>
       <c r="L851" s="4"/>
-      <c r="M851" s="2" t="s">
+      <c r="M851" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N851" s="2" t="s">
@@ -51524,7 +51530,7 @@
       </c>
       <c r="K861" s="2"/>
       <c r="L861" s="4"/>
-      <c r="M861" s="2" t="s">
+      <c r="M861" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N861" s="2" t="s">
@@ -51682,7 +51688,7 @@
       </c>
       <c r="K864" s="2"/>
       <c r="L864" s="4"/>
-      <c r="M864" s="2" t="s">
+      <c r="M864" s="3" t="s">
         <v>175</v>
       </c>
       <c r="N864" s="2" t="s">
@@ -52210,7 +52216,7 @@
       </c>
       <c r="K874" s="2"/>
       <c r="L874" s="4"/>
-      <c r="M874" s="2" t="s">
+      <c r="M874" s="3" t="s">
         <v>176</v>
       </c>
       <c r="N874" s="2" t="s">
@@ -52738,7 +52744,7 @@
       </c>
       <c r="K884" s="2"/>
       <c r="L884" s="4"/>
-      <c r="M884" s="2" t="s">
+      <c r="M884" s="3" t="s">
         <v>177</v>
       </c>
       <c r="N884" s="2" t="s">
@@ -53156,7 +53162,7 @@
         <v>1202</v>
       </c>
       <c r="L892" s="4"/>
-      <c r="M892" s="2" t="s">
+      <c r="M892" s="3" t="s">
         <v>178</v>
       </c>
       <c r="N892" s="2" t="s">
@@ -53692,7 +53698,7 @@
       </c>
       <c r="K902" s="2"/>
       <c r="L902" s="4"/>
-      <c r="M902" s="2" t="s">
+      <c r="M902" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N902" s="2" t="s">
@@ -53852,7 +53858,7 @@
       </c>
       <c r="K905" s="2"/>
       <c r="L905" s="4"/>
-      <c r="M905" s="2" t="s">
+      <c r="M905" s="3" t="s">
         <v>179</v>
       </c>
       <c r="N905" s="2"/>
